--- a/abortion ny state.xlsx
+++ b/abortion ny state.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rohanmahnot/OneDrive/My Drive/Data Incubator/abortion_crime/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/303eb1a87315d2ff/My Drive/Data Incubator/abortion_crime/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390F783A-24E8-D444-B141-3FCA0EB50BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4C6B2811-136A-E246-9017-2212F1B4FF4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{093B582C-8598-214D-863F-8A117735B086}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{C1FA1C44-3C5F-41DA-BD99-EA46DD277AD7}"/>
   </bookViews>
@@ -468,126 +468,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE955D1-3E92-407C-A4C9-25EEFF773461}">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4" t="s">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="5" t="s">
+      <c r="N1" s="5"/>
+      <c r="O1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="5" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="60" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="4"/>
+      <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -2839,37 +2839,6 @@
       </c>
       <c r="Q51" s="3">
         <v>26.41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B52" s="2">
-        <v>226238</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="2">
-        <v>-101600</v>
-      </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3">
-        <v>-30.99</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>-25.51</v>
       </c>
     </row>
   </sheetData>
